--- a/Табл.xlsx
+++ b/Табл.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\node projects\masich-stp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816A70AE-CD0C-46DC-B660-7CDE068FF4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D915417-E861-429D-8F57-76374228DA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -363,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -414,29 +414,98 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -447,97 +516,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -822,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:Q112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -842,43 +839,43 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="29" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="35"/>
+      <c r="H4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="24" t="s">
+      <c r="I4" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="L4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="O4" s="24"/>
-      <c r="P4" s="29" t="s">
+      <c r="M4" s="35"/>
+      <c r="N4" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="35"/>
+      <c r="P4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="24" t="s">
+      <c r="Q4" s="35" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C5" s="19"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="14" t="s">
         <v>5</v>
       </c>
@@ -891,9 +888,9 @@
       <c r="G5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="19"/>
-      <c r="K5" s="24"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="32"/>
+      <c r="K5" s="35"/>
       <c r="L5" s="10" t="s">
         <v>5</v>
       </c>
@@ -906,18 +903,18 @@
       <c r="O5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="24"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="35"/>
     </row>
     <row r="6" spans="3:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="27">
+      <c r="C6" s="50">
         <v>1</v>
       </c>
-      <c r="D6" s="27">
-        <v>32769</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>8</v>
+      <c r="D6" s="50">
+        <v>32764</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>10</v>
       </c>
       <c r="F6" s="5">
         <v>128</v>
@@ -931,13 +928,13 @@
       <c r="I6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="50">
         <v>1</v>
       </c>
-      <c r="L6" s="27">
+      <c r="L6" s="50">
         <v>32769</v>
       </c>
-      <c r="M6" s="27" t="s">
+      <c r="M6" s="50" t="s">
         <v>8</v>
       </c>
       <c r="N6" s="5">
@@ -948,9 +945,9 @@
       <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="3:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
       <c r="F7" s="5">
         <v>128</v>
       </c>
@@ -963,9 +960,9 @@
       <c r="I7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
       <c r="N7" s="5">
         <v>128</v>
       </c>
@@ -974,9 +971,9 @@
       <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="3:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
       <c r="F8" s="5">
         <v>128</v>
       </c>
@@ -986,12 +983,12 @@
       <c r="H8" s="5">
         <v>4</v>
       </c>
-      <c r="I8" s="43" t="s">
+      <c r="I8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
       <c r="N8" s="5">
         <v>128</v>
       </c>
@@ -1000,9 +997,9 @@
       <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="3:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="7">
         <v>128</v>
       </c>
@@ -1015,9 +1012,9 @@
       <c r="I9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
       <c r="N9" s="7">
         <v>128</v>
       </c>
@@ -1026,34 +1023,34 @@
       <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C10" s="48">
-        <v>2</v>
-      </c>
-      <c r="D10" s="48">
+      <c r="C10" s="53">
+        <v>2</v>
+      </c>
+      <c r="D10" s="53">
+        <v>32765</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="24">
+        <v>128</v>
+      </c>
+      <c r="G10" s="24">
+        <v>1</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="36">
+        <v>2</v>
+      </c>
+      <c r="L10" s="36">
         <v>32770</v>
       </c>
-      <c r="E10" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="49">
-        <v>128</v>
-      </c>
-      <c r="G10" s="49">
-        <v>1</v>
-      </c>
-      <c r="H10" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="18">
-        <v>2</v>
-      </c>
-      <c r="L10" s="18">
-        <v>32770</v>
-      </c>
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="36" t="s">
         <v>9</v>
       </c>
       <c r="N10" s="11">
@@ -1064,24 +1061,24 @@
       <c r="Q10" s="11"/>
     </row>
     <row r="11" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="51">
-        <v>128</v>
-      </c>
-      <c r="G11" s="51">
-        <v>2</v>
-      </c>
-      <c r="H11" s="51">
-        <v>4</v>
-      </c>
-      <c r="I11" s="46" t="s">
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="23">
+        <v>128</v>
+      </c>
+      <c r="G11" s="23">
+        <v>2</v>
+      </c>
+      <c r="H11" s="23">
+        <v>4</v>
+      </c>
+      <c r="I11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
       <c r="N11" s="11">
         <v>128</v>
       </c>
@@ -1090,14 +1087,14 @@
       <c r="Q11" s="11"/>
     </row>
     <row r="12" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C12" s="39">
+      <c r="C12" s="28">
         <v>3</v>
       </c>
-      <c r="D12" s="39">
-        <v>32764</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>10</v>
+      <c r="D12" s="28">
+        <v>32766</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>13</v>
       </c>
       <c r="F12" s="13">
         <v>128</v>
@@ -1111,13 +1108,13 @@
       <c r="I12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K12" s="28">
         <v>3</v>
       </c>
-      <c r="L12" s="39">
+      <c r="L12" s="28">
         <v>32764</v>
       </c>
-      <c r="M12" s="39" t="s">
+      <c r="M12" s="28" t="s">
         <v>10</v>
       </c>
       <c r="N12" s="13">
@@ -1135,9 +1132,9 @@
       </c>
     </row>
     <row r="13" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="13">
         <v>128</v>
       </c>
@@ -1150,9 +1147,9 @@
       <c r="I13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
       <c r="N13" s="13">
         <v>128</v>
       </c>
@@ -1168,9 +1165,9 @@
       </c>
     </row>
     <row r="14" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="13">
         <v>128</v>
       </c>
@@ -1183,9 +1180,9 @@
       <c r="I14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
       <c r="N14" s="13">
         <v>128</v>
       </c>
@@ -1201,9 +1198,9 @@
       </c>
     </row>
     <row r="15" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="13">
         <v>128</v>
       </c>
@@ -1213,12 +1210,12 @@
       <c r="H15" s="13">
         <v>4</v>
       </c>
-      <c r="I15" s="47" t="s">
+      <c r="I15" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
       <c r="N15" s="13">
         <v>128</v>
       </c>
@@ -1234,9 +1231,9 @@
       </c>
     </row>
     <row r="16" spans="3:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
       <c r="F16" s="13">
         <v>128</v>
       </c>
@@ -1249,9 +1246,9 @@
       <c r="I16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
       <c r="N16" s="13">
         <v>128</v>
       </c>
@@ -1267,9 +1264,9 @@
       </c>
     </row>
     <row r="17" spans="3:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="13">
         <v>128</v>
       </c>
@@ -1279,12 +1276,12 @@
       <c r="H17" s="13">
         <v>2</v>
       </c>
-      <c r="I17" s="44" t="s">
+      <c r="I17" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
       <c r="N17" s="13">
         <v>128</v>
       </c>
@@ -1293,9 +1290,9 @@
       <c r="Q17" s="11"/>
     </row>
     <row r="18" spans="3:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="13">
         <v>128</v>
       </c>
@@ -1308,9 +1305,9 @@
       <c r="I18" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
       <c r="N18" s="13">
         <v>128</v>
       </c>
@@ -1319,9 +1316,9 @@
       <c r="Q18" s="11"/>
     </row>
     <row r="19" spans="3:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
       <c r="F19" s="17">
         <v>128</v>
       </c>
@@ -1334,13 +1331,13 @@
       <c r="I19" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="K19" s="38">
-        <v>4</v>
-      </c>
-      <c r="L19" s="38">
+      <c r="K19" s="37">
+        <v>4</v>
+      </c>
+      <c r="L19" s="37">
         <v>32765</v>
       </c>
-      <c r="M19" s="38" t="s">
+      <c r="M19" s="37" t="s">
         <v>11</v>
       </c>
       <c r="N19" s="15">
@@ -1358,30 +1355,30 @@
       </c>
     </row>
     <row r="20" spans="3:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="52">
-        <v>4</v>
-      </c>
-      <c r="D20" s="52">
-        <v>32765</v>
-      </c>
-      <c r="E20" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="49">
-        <v>128</v>
-      </c>
-      <c r="G20" s="49">
+      <c r="C20" s="30">
+        <v>4</v>
+      </c>
+      <c r="D20" s="30">
+        <v>32767</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="24">
+        <v>128</v>
+      </c>
+      <c r="G20" s="24">
         <v>1</v>
       </c>
-      <c r="H20" s="49">
-        <v>4</v>
-      </c>
-      <c r="I20" s="47" t="s">
+      <c r="H20" s="24">
+        <v>4</v>
+      </c>
+      <c r="I20" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
       <c r="N20" s="13">
         <v>128</v>
       </c>
@@ -1397,24 +1394,24 @@
       </c>
     </row>
     <row r="21" spans="3:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="49">
-        <v>128</v>
-      </c>
-      <c r="G21" s="49">
-        <v>2</v>
-      </c>
-      <c r="H21" s="49">
-        <v>4</v>
-      </c>
-      <c r="I21" s="49" t="s">
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="24">
+        <v>128</v>
+      </c>
+      <c r="G21" s="24">
+        <v>2</v>
+      </c>
+      <c r="H21" s="24">
+        <v>4</v>
+      </c>
+      <c r="I21" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
       <c r="N21" s="13">
         <v>128</v>
       </c>
@@ -1430,24 +1427,24 @@
       </c>
     </row>
     <row r="22" spans="3:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="49">
-        <v>128</v>
-      </c>
-      <c r="G22" s="49">
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="24">
+        <v>128</v>
+      </c>
+      <c r="G22" s="24">
         <v>3</v>
       </c>
-      <c r="H22" s="49">
-        <v>4</v>
-      </c>
-      <c r="I22" s="49" t="s">
+      <c r="H22" s="24">
+        <v>4</v>
+      </c>
+      <c r="I22" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
       <c r="N22" s="13">
         <v>128</v>
       </c>
@@ -1456,24 +1453,24 @@
       <c r="Q22" s="11"/>
     </row>
     <row r="23" spans="3:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="49">
-        <v>128</v>
-      </c>
-      <c r="G23" s="49">
-        <v>4</v>
-      </c>
-      <c r="H23" s="49">
-        <v>4</v>
-      </c>
-      <c r="I23" s="49" t="s">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="24">
+        <v>128</v>
+      </c>
+      <c r="G23" s="24">
+        <v>4</v>
+      </c>
+      <c r="H23" s="24">
+        <v>4</v>
+      </c>
+      <c r="I23" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
       <c r="N23" s="13">
         <v>128</v>
       </c>
@@ -1482,24 +1479,24 @@
       <c r="Q23" s="11"/>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="49">
-        <v>128</v>
-      </c>
-      <c r="G24" s="51">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="24">
+        <v>128</v>
+      </c>
+      <c r="G24" s="23">
         <v>5</v>
       </c>
-      <c r="H24" s="51">
-        <v>4</v>
-      </c>
-      <c r="I24" s="51" t="s">
+      <c r="H24" s="23">
+        <v>4</v>
+      </c>
+      <c r="I24" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
       <c r="N24" s="13">
         <v>128</v>
       </c>
@@ -1515,24 +1512,24 @@
       </c>
     </row>
     <row r="25" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="53">
-        <v>128</v>
-      </c>
-      <c r="G25" s="49">
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="25">
+        <v>128</v>
+      </c>
+      <c r="G25" s="24">
         <v>6</v>
       </c>
-      <c r="H25" s="49">
-        <v>4</v>
-      </c>
-      <c r="I25" s="49" t="s">
+      <c r="H25" s="24">
+        <v>4</v>
+      </c>
+      <c r="I25" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
       <c r="N25" s="13">
         <v>128</v>
       </c>
@@ -1548,28 +1545,28 @@
       </c>
     </row>
     <row r="26" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="49">
-        <v>128</v>
-      </c>
-      <c r="G26" s="54">
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="24">
+        <v>128</v>
+      </c>
+      <c r="G26" s="26">
         <v>7</v>
       </c>
-      <c r="H26" s="54" t="s">
+      <c r="H26" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I26" s="54" t="s">
+      <c r="I26" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="K26" s="22" t="s">
+      <c r="K26" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="L26" s="25">
+      <c r="L26" s="44">
         <v>32763</v>
       </c>
-      <c r="M26" s="22" t="s">
+      <c r="M26" s="43" t="s">
         <v>13</v>
       </c>
       <c r="N26" s="8">
@@ -1587,24 +1584,24 @@
       </c>
     </row>
     <row r="27" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="49">
-        <v>128</v>
-      </c>
-      <c r="G27" s="49">
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="24">
+        <v>128</v>
+      </c>
+      <c r="G27" s="24">
         <v>8</v>
       </c>
-      <c r="H27" s="49">
-        <v>4</v>
-      </c>
-      <c r="I27" s="49" t="s">
+      <c r="H27" s="24">
+        <v>4</v>
+      </c>
+      <c r="I27" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="23"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="23"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="31"/>
       <c r="N27" s="5">
         <v>128</v>
       </c>
@@ -1620,14 +1617,14 @@
       </c>
     </row>
     <row r="28" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="44">
         <v>32763</v>
       </c>
-      <c r="E28" s="22" t="s">
-        <v>13</v>
+      <c r="E28" s="43" t="s">
+        <v>15</v>
       </c>
       <c r="F28" s="8">
         <v>128</v>
@@ -1641,9 +1638,9 @@
       <c r="I28" s="8">
         <v>0</v>
       </c>
-      <c r="K28" s="23"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="23"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="31"/>
       <c r="N28" s="5">
         <v>128</v>
       </c>
@@ -1659,9 +1656,9 @@
       </c>
     </row>
     <row r="29" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C29" s="23"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="23"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="31"/>
       <c r="F29" s="5">
         <v>128</v>
       </c>
@@ -1674,9 +1671,9 @@
       <c r="I29" s="5">
         <v>0</v>
       </c>
-      <c r="K29" s="23"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="23"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="31"/>
       <c r="N29" s="5">
         <v>128</v>
       </c>
@@ -1692,9 +1689,9 @@
       </c>
     </row>
     <row r="30" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C30" s="23"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="23"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="31"/>
       <c r="F30" s="5">
         <v>128</v>
       </c>
@@ -1707,9 +1704,9 @@
       <c r="I30" s="5">
         <v>0</v>
       </c>
-      <c r="K30" s="23"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="23"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="31"/>
       <c r="N30" s="5">
         <v>128</v>
       </c>
@@ -1725,9 +1722,9 @@
       </c>
     </row>
     <row r="31" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C31" s="23"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="23"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="31"/>
       <c r="F31" s="5">
         <v>128</v>
       </c>
@@ -1740,9 +1737,9 @@
       <c r="I31" s="5">
         <v>0</v>
       </c>
-      <c r="K31" s="23"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="23"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="31"/>
       <c r="N31" s="5">
         <v>128</v>
       </c>
@@ -1758,9 +1755,9 @@
       </c>
     </row>
     <row r="32" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C32" s="23"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="23"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="31"/>
       <c r="F32" s="5">
         <v>128</v>
       </c>
@@ -1773,9 +1770,9 @@
       <c r="I32" s="5">
         <v>0</v>
       </c>
-      <c r="K32" s="23"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="23"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="31"/>
       <c r="N32" s="5">
         <v>128</v>
       </c>
@@ -1791,9 +1788,9 @@
       </c>
     </row>
     <row r="33" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C33" s="23"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="23"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="31"/>
       <c r="F33" s="5">
         <v>128</v>
       </c>
@@ -1806,9 +1803,9 @@
       <c r="I33" s="5">
         <v>0</v>
       </c>
-      <c r="K33" s="23"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="23"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="31"/>
       <c r="N33" s="5">
         <v>128</v>
       </c>
@@ -1824,9 +1821,9 @@
       </c>
     </row>
     <row r="34" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C34" s="23"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="23"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="31"/>
       <c r="F34" s="5">
         <v>128</v>
       </c>
@@ -1839,13 +1836,13 @@
       <c r="I34" s="5">
         <v>0</v>
       </c>
-      <c r="K34" s="24">
+      <c r="K34" s="35">
         <v>6</v>
       </c>
-      <c r="L34" s="24">
+      <c r="L34" s="35">
         <v>32766</v>
       </c>
-      <c r="M34" s="24" t="s">
+      <c r="M34" s="35" t="s">
         <v>14</v>
       </c>
       <c r="N34" s="6">
@@ -1862,9 +1859,9 @@
       </c>
     </row>
     <row r="35" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C35" s="23"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="23"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="31"/>
       <c r="F35" s="5">
         <v>128</v>
       </c>
@@ -1877,9 +1874,9 @@
       <c r="I35" s="5">
         <v>0</v>
       </c>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
       <c r="N35" s="6">
         <v>128</v>
       </c>
@@ -1894,30 +1891,30 @@
       </c>
     </row>
     <row r="36" spans="3:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="55">
+      <c r="C36" s="58">
         <v>6</v>
       </c>
-      <c r="D36" s="55">
-        <v>32766</v>
-      </c>
-      <c r="E36" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="56">
-        <v>128</v>
-      </c>
-      <c r="G36" s="56">
+      <c r="D36" s="58">
+        <v>32768</v>
+      </c>
+      <c r="E36" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="27">
+        <v>128</v>
+      </c>
+      <c r="G36" s="27">
         <v>1</v>
       </c>
-      <c r="H36" s="56">
-        <v>4</v>
-      </c>
-      <c r="I36" s="56" t="s">
+      <c r="H36" s="27">
+        <v>4</v>
+      </c>
+      <c r="I36" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
       <c r="N36" s="6">
         <v>128</v>
       </c>
@@ -1932,24 +1929,24 @@
       </c>
     </row>
     <row r="37" spans="3:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="56">
-        <v>128</v>
-      </c>
-      <c r="G37" s="56">
-        <v>2</v>
-      </c>
-      <c r="H37" s="56">
-        <v>4</v>
-      </c>
-      <c r="I37" s="56" t="s">
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="27">
+        <v>128</v>
+      </c>
+      <c r="G37" s="27">
+        <v>2</v>
+      </c>
+      <c r="H37" s="27">
+        <v>4</v>
+      </c>
+      <c r="I37" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
       <c r="N37" s="6">
         <v>128</v>
       </c>
@@ -1964,24 +1961,24 @@
       </c>
     </row>
     <row r="38" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="56">
-        <v>128</v>
-      </c>
-      <c r="G38" s="56">
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="27">
+        <v>128</v>
+      </c>
+      <c r="G38" s="27">
         <v>3</v>
       </c>
-      <c r="H38" s="56">
-        <v>4</v>
-      </c>
-      <c r="I38" s="56" t="s">
+      <c r="H38" s="27">
+        <v>4</v>
+      </c>
+      <c r="I38" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
       <c r="N38" s="6">
         <v>128</v>
       </c>
@@ -1996,24 +1993,24 @@
       </c>
     </row>
     <row r="39" spans="3:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="56">
-        <v>128</v>
-      </c>
-      <c r="G39" s="56">
-        <v>4</v>
-      </c>
-      <c r="H39" s="56">
-        <v>4</v>
-      </c>
-      <c r="I39" s="56" t="s">
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="27">
+        <v>128</v>
+      </c>
+      <c r="G39" s="27">
+        <v>4</v>
+      </c>
+      <c r="H39" s="27">
+        <v>4</v>
+      </c>
+      <c r="I39" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
       <c r="N39" s="6">
         <v>128</v>
       </c>
@@ -2028,24 +2025,24 @@
       </c>
     </row>
     <row r="40" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="56">
-        <v>128</v>
-      </c>
-      <c r="G40" s="56">
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="27">
+        <v>128</v>
+      </c>
+      <c r="G40" s="27">
         <v>5</v>
       </c>
-      <c r="H40" s="56">
-        <v>4</v>
-      </c>
-      <c r="I40" s="56" t="s">
+      <c r="H40" s="27">
+        <v>4</v>
+      </c>
+      <c r="I40" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
       <c r="N40" s="6">
         <v>128</v>
       </c>
@@ -2060,24 +2057,24 @@
       </c>
     </row>
     <row r="41" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="56">
-        <v>128</v>
-      </c>
-      <c r="G41" s="56">
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="27">
+        <v>128</v>
+      </c>
+      <c r="G41" s="27">
         <v>6</v>
       </c>
-      <c r="H41" s="56" t="s">
+      <c r="H41" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="I41" s="56" t="s">
+      <c r="I41" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
       <c r="N41" s="6">
         <v>128</v>
       </c>
@@ -2092,28 +2089,28 @@
       </c>
     </row>
     <row r="42" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="56">
-        <v>128</v>
-      </c>
-      <c r="G42" s="56">
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="27">
+        <v>128</v>
+      </c>
+      <c r="G42" s="27">
         <v>7</v>
       </c>
-      <c r="H42" s="56" t="s">
+      <c r="H42" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I42" s="56" t="s">
+      <c r="I42" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="K42" s="23">
+      <c r="K42" s="31">
         <v>7</v>
       </c>
-      <c r="L42" s="23">
+      <c r="L42" s="31">
         <v>32767</v>
       </c>
-      <c r="M42" s="23" t="s">
+      <c r="M42" s="31" t="s">
         <v>15</v>
       </c>
       <c r="N42" s="5">
@@ -2131,24 +2128,24 @@
       </c>
     </row>
     <row r="43" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="56">
-        <v>128</v>
-      </c>
-      <c r="G43" s="56">
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="27">
+        <v>128</v>
+      </c>
+      <c r="G43" s="27">
         <v>8</v>
       </c>
-      <c r="H43" s="56">
-        <v>4</v>
-      </c>
-      <c r="I43" s="43" t="s">
+      <c r="H43" s="27">
+        <v>4</v>
+      </c>
+      <c r="I43" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
       <c r="N43" s="5">
         <v>128</v>
       </c>
@@ -2164,14 +2161,14 @@
       </c>
     </row>
     <row r="44" spans="3:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="23">
+      <c r="C44" s="31">
         <v>7</v>
       </c>
-      <c r="D44" s="23">
-        <v>32767</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>15</v>
+      <c r="D44" s="31">
+        <v>32769</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>8</v>
       </c>
       <c r="F44" s="5">
         <v>128</v>
@@ -2185,9 +2182,9 @@
       <c r="I44" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="23"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
       <c r="N44" s="5">
         <v>128</v>
       </c>
@@ -2203,9 +2200,9 @@
       </c>
     </row>
     <row r="45" spans="3:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
       <c r="F45" s="5">
         <v>128</v>
       </c>
@@ -2215,12 +2212,12 @@
       <c r="H45" s="5">
         <v>4</v>
       </c>
-      <c r="I45" s="45" t="s">
+      <c r="I45" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
       <c r="N45" s="5">
         <v>128</v>
       </c>
@@ -2236,9 +2233,9 @@
       </c>
     </row>
     <row r="46" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
       <c r="F46" s="5">
         <v>128</v>
       </c>
@@ -2251,13 +2248,13 @@
       <c r="I46" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="19">
+      <c r="K46" s="32">
         <v>8</v>
       </c>
-      <c r="L46" s="19">
+      <c r="L46" s="32">
         <v>32768</v>
       </c>
-      <c r="M46" s="19" t="s">
+      <c r="M46" s="32" t="s">
         <v>16</v>
       </c>
       <c r="N46" s="6">
@@ -2275,9 +2272,9 @@
       </c>
     </row>
     <row r="47" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
       <c r="F47" s="5">
         <v>128</v>
       </c>
@@ -2287,12 +2284,12 @@
       <c r="H47" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I47" s="42" t="s">
+      <c r="I47" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
       <c r="N47" s="6">
         <v>128</v>
       </c>
@@ -2308,30 +2305,30 @@
       </c>
     </row>
     <row r="48" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C48" s="57">
+      <c r="C48" s="55">
         <v>8</v>
       </c>
-      <c r="D48" s="57">
-        <v>32768</v>
-      </c>
-      <c r="E48" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="56">
-        <v>128</v>
-      </c>
-      <c r="G48" s="56">
+      <c r="D48" s="55">
+        <v>32770</v>
+      </c>
+      <c r="E48" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="27">
+        <v>128</v>
+      </c>
+      <c r="G48" s="27">
         <v>1</v>
       </c>
-      <c r="H48" s="56" t="s">
+      <c r="H48" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I48" s="56" t="s">
+      <c r="I48" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="33"/>
       <c r="N48" s="6">
         <v>128</v>
       </c>
@@ -2347,24 +2344,24 @@
       </c>
     </row>
     <row r="49" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="56">
-        <v>128</v>
-      </c>
-      <c r="G49" s="56">
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="27">
+        <v>128</v>
+      </c>
+      <c r="G49" s="27">
         <v>3</v>
       </c>
-      <c r="H49" s="56">
-        <v>4</v>
-      </c>
-      <c r="I49" s="43" t="s">
+      <c r="H49" s="27">
+        <v>4</v>
+      </c>
+      <c r="I49" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34"/>
       <c r="N49" s="6">
         <v>128</v>
       </c>
@@ -2380,60 +2377,60 @@
       </c>
     </row>
     <row r="50" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C50" s="58"/>
-      <c r="D50" s="58"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="56">
-        <v>128</v>
-      </c>
-      <c r="G50" s="56">
-        <v>4</v>
-      </c>
-      <c r="H50" s="56" t="s">
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="27">
+        <v>128</v>
+      </c>
+      <c r="G50" s="27">
+        <v>4</v>
+      </c>
+      <c r="H50" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I50" s="56" t="s">
+      <c r="I50" s="27" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="51" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="56">
-        <v>128</v>
-      </c>
-      <c r="G51" s="56">
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="27">
+        <v>128</v>
+      </c>
+      <c r="G51" s="27">
         <v>5</v>
       </c>
-      <c r="H51" s="56" t="s">
+      <c r="H51" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I51" s="56" t="s">
+      <c r="I51" s="27" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="77" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="24" t="s">
+      <c r="B77" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C77" s="31" t="s">
+      <c r="C77" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D77" s="32"/>
-      <c r="E77" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="F77" s="32"/>
-      <c r="G77" s="33" t="s">
+      <c r="D77" s="46"/>
+      <c r="E77" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="F77" s="46"/>
+      <c r="G77" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="H77" s="19" t="s">
+      <c r="H77" s="32" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="78" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="24"/>
+      <c r="B78" s="35"/>
       <c r="C78" s="2" t="s">
         <v>5</v>
       </c>
@@ -2446,322 +2443,322 @@
       <c r="F78" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G78" s="34"/>
-      <c r="H78" s="21"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="34"/>
     </row>
     <row r="79" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="24">
+      <c r="B79" s="35">
         <v>3</v>
       </c>
-      <c r="C79" s="35"/>
-      <c r="D79" s="35"/>
+      <c r="C79" s="40"/>
+      <c r="D79" s="40"/>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
     </row>
     <row r="80" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="24"/>
-      <c r="C80" s="36"/>
-      <c r="D80" s="36"/>
+      <c r="B80" s="35"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="41"/>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
     </row>
     <row r="81" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="24"/>
-      <c r="C81" s="36"/>
-      <c r="D81" s="36"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="41"/>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
     </row>
     <row r="82" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="24"/>
-      <c r="C82" s="36"/>
-      <c r="D82" s="36"/>
+      <c r="B82" s="35"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="41"/>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
       <c r="H82" s="9"/>
     </row>
     <row r="83" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="24"/>
-      <c r="C83" s="37"/>
-      <c r="D83" s="37"/>
+      <c r="B83" s="35"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B84" s="24">
-        <v>4</v>
-      </c>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
+      <c r="B84" s="35">
+        <v>4</v>
+      </c>
+      <c r="C84" s="49"/>
+      <c r="D84" s="49"/>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B85" s="24"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
+      <c r="B85" s="35"/>
+      <c r="C85" s="49"/>
+      <c r="D85" s="49"/>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B86" s="24"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26"/>
+      <c r="B86" s="35"/>
+      <c r="C86" s="49"/>
+      <c r="D86" s="49"/>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B87" s="24"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
+      <c r="B87" s="35"/>
+      <c r="C87" s="49"/>
+      <c r="D87" s="49"/>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B88" s="24"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="26"/>
+      <c r="B88" s="35"/>
+      <c r="C88" s="49"/>
+      <c r="D88" s="49"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B89" s="24">
+      <c r="B89" s="35">
         <v>5</v>
       </c>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
+      <c r="C89" s="49"/>
+      <c r="D89" s="49"/>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B90" s="24"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="26"/>
+      <c r="B90" s="35"/>
+      <c r="C90" s="49"/>
+      <c r="D90" s="49"/>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B91" s="24"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="26"/>
+      <c r="B91" s="35"/>
+      <c r="C91" s="49"/>
+      <c r="D91" s="49"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B92" s="24"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
+      <c r="B92" s="35"/>
+      <c r="C92" s="49"/>
+      <c r="D92" s="49"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B93" s="24"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="26"/>
+      <c r="B93" s="35"/>
+      <c r="C93" s="49"/>
+      <c r="D93" s="49"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B94" s="24"/>
-      <c r="C94" s="26"/>
-      <c r="D94" s="26"/>
+      <c r="B94" s="35"/>
+      <c r="C94" s="49"/>
+      <c r="D94" s="49"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B95" s="24"/>
-      <c r="C95" s="26"/>
-      <c r="D95" s="26"/>
+      <c r="B95" s="35"/>
+      <c r="C95" s="49"/>
+      <c r="D95" s="49"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B96" s="24"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="26"/>
+      <c r="B96" s="35"/>
+      <c r="C96" s="49"/>
+      <c r="D96" s="49"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B97" s="24">
+      <c r="B97" s="35">
         <v>6</v>
       </c>
-      <c r="C97" s="26"/>
-      <c r="D97" s="26"/>
+      <c r="C97" s="49"/>
+      <c r="D97" s="49"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B98" s="24"/>
-      <c r="C98" s="26"/>
-      <c r="D98" s="26"/>
+      <c r="B98" s="35"/>
+      <c r="C98" s="49"/>
+      <c r="D98" s="49"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B99" s="24"/>
-      <c r="C99" s="26"/>
-      <c r="D99" s="26"/>
+      <c r="B99" s="35"/>
+      <c r="C99" s="49"/>
+      <c r="D99" s="49"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B100" s="24"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="26"/>
+      <c r="B100" s="35"/>
+      <c r="C100" s="49"/>
+      <c r="D100" s="49"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B101" s="24"/>
-      <c r="C101" s="26"/>
-      <c r="D101" s="26"/>
+      <c r="B101" s="35"/>
+      <c r="C101" s="49"/>
+      <c r="D101" s="49"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B102" s="24"/>
-      <c r="C102" s="26"/>
-      <c r="D102" s="26"/>
+      <c r="B102" s="35"/>
+      <c r="C102" s="49"/>
+      <c r="D102" s="49"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B103" s="24"/>
-      <c r="C103" s="26"/>
-      <c r="D103" s="26"/>
+      <c r="B103" s="35"/>
+      <c r="C103" s="49"/>
+      <c r="D103" s="49"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B104" s="24"/>
-      <c r="C104" s="26"/>
-      <c r="D104" s="26"/>
+      <c r="B104" s="35"/>
+      <c r="C104" s="49"/>
+      <c r="D104" s="49"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B105" s="24">
+      <c r="B105" s="35">
         <v>7</v>
       </c>
-      <c r="C105" s="26"/>
-      <c r="D105" s="26"/>
+      <c r="C105" s="49"/>
+      <c r="D105" s="49"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B106" s="24"/>
-      <c r="C106" s="26"/>
-      <c r="D106" s="26"/>
+      <c r="B106" s="35"/>
+      <c r="C106" s="49"/>
+      <c r="D106" s="49"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B107" s="24"/>
-      <c r="C107" s="26"/>
-      <c r="D107" s="26"/>
+      <c r="B107" s="35"/>
+      <c r="C107" s="49"/>
+      <c r="D107" s="49"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B108" s="24"/>
-      <c r="C108" s="26"/>
-      <c r="D108" s="26"/>
+      <c r="B108" s="35"/>
+      <c r="C108" s="49"/>
+      <c r="D108" s="49"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B109" s="24">
+      <c r="B109" s="35">
         <v>8</v>
       </c>
-      <c r="C109" s="26"/>
-      <c r="D109" s="26"/>
+      <c r="C109" s="49"/>
+      <c r="D109" s="49"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B110" s="24"/>
-      <c r="C110" s="26"/>
-      <c r="D110" s="26"/>
+      <c r="B110" s="35"/>
+      <c r="C110" s="49"/>
+      <c r="D110" s="49"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B111" s="24"/>
-      <c r="C111" s="26"/>
-      <c r="D111" s="26"/>
+      <c r="B111" s="35"/>
+      <c r="C111" s="49"/>
+      <c r="D111" s="49"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B112" s="24"/>
-      <c r="C112" s="26"/>
-      <c r="D112" s="26"/>
+      <c r="B112" s="35"/>
+      <c r="C112" s="49"/>
+      <c r="D112" s="49"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
@@ -2769,25 +2766,52 @@
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="D12:D19"/>
-    <mergeCell ref="E12:E19"/>
-    <mergeCell ref="C20:C27"/>
-    <mergeCell ref="D20:D27"/>
-    <mergeCell ref="E20:E27"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="K46:K49"/>
-    <mergeCell ref="L46:L49"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="K12:K18"/>
-    <mergeCell ref="L12:L18"/>
-    <mergeCell ref="M12:M18"/>
-    <mergeCell ref="K19:K25"/>
-    <mergeCell ref="L19:L25"/>
-    <mergeCell ref="M19:M25"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="E28:E35"/>
+    <mergeCell ref="C36:C43"/>
+    <mergeCell ref="D36:D43"/>
+    <mergeCell ref="E36:E43"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="C28:C35"/>
+    <mergeCell ref="D28:D35"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="D97:D104"/>
+    <mergeCell ref="C97:C104"/>
+    <mergeCell ref="B97:B104"/>
+    <mergeCell ref="B105:B108"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="C105:C108"/>
+    <mergeCell ref="D105:D108"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="D109:D112"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="L6:L9"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="D89:D96"/>
+    <mergeCell ref="C89:C96"/>
+    <mergeCell ref="B89:B96"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="C84:C88"/>
+    <mergeCell ref="D84:D88"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="B79:B83"/>
@@ -2804,52 +2828,25 @@
     <mergeCell ref="K42:K45"/>
     <mergeCell ref="L42:L45"/>
     <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="D89:D96"/>
-    <mergeCell ref="C89:C96"/>
-    <mergeCell ref="B89:B96"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="C84:C88"/>
-    <mergeCell ref="D84:D88"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="L6:L9"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="D97:D104"/>
-    <mergeCell ref="C97:C104"/>
-    <mergeCell ref="B97:B104"/>
-    <mergeCell ref="B105:B108"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="C105:C108"/>
-    <mergeCell ref="D105:D108"/>
-    <mergeCell ref="C109:C112"/>
-    <mergeCell ref="D109:D112"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="E28:E35"/>
-    <mergeCell ref="C36:C43"/>
-    <mergeCell ref="D36:D43"/>
-    <mergeCell ref="E36:E43"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="C28:C35"/>
-    <mergeCell ref="D28:D35"/>
-    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="M42:M45"/>
+    <mergeCell ref="K46:K49"/>
+    <mergeCell ref="L46:L49"/>
+    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="K12:K18"/>
+    <mergeCell ref="L12:L18"/>
+    <mergeCell ref="M12:M18"/>
+    <mergeCell ref="K19:K25"/>
+    <mergeCell ref="L19:L25"/>
+    <mergeCell ref="M19:M25"/>
+    <mergeCell ref="D12:D19"/>
+    <mergeCell ref="E12:E19"/>
+    <mergeCell ref="C20:C27"/>
+    <mergeCell ref="D20:D27"/>
+    <mergeCell ref="E20:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
